--- a/Rendu aux tuteurs/Budjet final.xlsx
+++ b/Rendu aux tuteurs/Budjet final.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\PROSITS\PROJETS\UE2\Rendu aux tuteurs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\Documents\GitHub\UE2-Projet-r-seau\Rendu aux tuteurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="0C690036154F1DEBDA288D5D64184382653B9143" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{F274A1F1-A71F-4385-BB3D-505863798C3C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{59E7AE7C-8EF7-4D43-9224-81464AD92AC1}"/>
   </bookViews>
@@ -636,7 +637,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +711,7 @@
       </c>
       <c r="G3" s="2">
         <f>(E2+E3+E4+E8)+(E7*20/100)</f>
-        <v>98500</v>
+        <v>117500</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -735,7 +736,7 @@
       </c>
       <c r="G4" s="7">
         <f>(G3-G2)</f>
-        <v>32728</v>
+        <v>51728</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -815,11 +816,11 @@
         <v>14</v>
       </c>
       <c r="D8" s="12">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E8" s="13">
         <f>(19*D8)</f>
-        <v>38000</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
